--- a/biology/Médecine/Loge_brachiale_antérieure/Loge_brachiale_antérieure.xlsx
+++ b/biology/Médecine/Loge_brachiale_antérieure/Loge_brachiale_antérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loge_brachiale_ant%C3%A9rieure</t>
+          <t>Loge_brachiale_antérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La loge brachiale antérieure (ou loge antérieure du bras[1]) est un compartiment ostéo-aponévrotique formant la région antérieure du bras.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loge brachiale antérieure (ou loge antérieure du bras) est un compartiment ostéo-aponévrotique formant la région antérieure du bras.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loge_brachiale_ant%C3%A9rieure</t>
+          <t>Loge_brachiale_antérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La loge brachiale antérieure est située devant l'humérus et est limitée latéralement par les septums intermusculaires médial et latéral du bras et en avant par le fascia brachial[1].
-Pour simplifier, la loge brachiale antérieure comprend les muscles fléchisseurs du coude[2] qui sont[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loge brachiale antérieure est située devant l'humérus et est limitée latéralement par les septums intermusculaires médial et latéral du bras et en avant par le fascia brachial.
+Pour simplifier, la loge brachiale antérieure comprend les muscles fléchisseurs du coude qui sont :
 le muscle biceps brachial,
 le muscle brachial,
 le muscle coracobrachial.
